--- a/src/lens_analysis/res/company_types/american-academia.xlsx
+++ b/src/lens_analysis/res/company_types/american-academia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\lens_analysis\src\lens_analysis\res\countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\lens_analysis\src\lens_analysis\res\company_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA34A4C-C482-4F94-B017-7D099CE15EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7FAB5-567B-4427-91DB-CDB60DF5ABE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49B82B13-1FCA-487C-ADAD-F26766A5709B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>UNIV CALIFORNIA</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>BROAD INST INC</t>
-  </si>
-  <si>
-    <t>UNIV NORTHEASTERN</t>
   </si>
   <si>
     <t>UNIV MICHIGAN STATE</t>
@@ -700,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB0092-7142-4311-8BB2-C8B7A39F4A1F}">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,12 +727,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -745,27 +742,27 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -775,17 +772,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -800,27 +797,27 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -840,27 +837,27 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -870,7 +867,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -880,7 +877,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -890,7 +887,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -910,27 +907,27 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
@@ -945,17 +942,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -965,12 +962,12 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
@@ -980,12 +977,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
@@ -1000,12 +997,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
@@ -1020,7 +1017,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
@@ -1030,12 +1027,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -1050,12 +1047,12 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
@@ -1065,177 +1062,172 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A908">
-    <sortCondition ref="A1:A908"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A907">
+    <sortCondition ref="A1:A907"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
